--- a/biology/Médecine/Marius_Renard/Marius_Renard.xlsx
+++ b/biology/Médecine/Marius_Renard/Marius_Renard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marius Renard (Berthecourt, 1936 - Paris 15e, 1953[1]) est l'un des premiers greffés français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marius Renard (Berthecourt, 1936 - Paris 15e, 1953) est l'un des premiers greffés français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marius Renard est un charpentier de 16 ans qui, à la suite d'une chute d'un échafaudage le 18 décembre 1952, a une hémorragie incontrôlable contraignant le chirurgien qui tentait en urgence de le sauver à lui retirer son rein droit rompu à l'origine de cette hémorragie. Le médecin qui pratique l’ablation avec succès (arrêt de l'hématurie), ignorait l'absence congénitale de rein gauche de l’adolescent. Le rein artificiel n’existant pas à l’époque, c’était la mort certaine à brève échéance pour ce sujet anéphrique[2]. 
-Le professeur Jean Hamburger, père de la néphrologie, Gabriel Richet et l'équipe de Louis Michon, chirurgien urologue de l'hôpital Necker, décident de tenter une greffe sur le jeune homme, à partir d'un don d'organe effectué par sa mère qui avait supplié pour qu’on donne cette chance à son fils. Dans un premier temps, l'opération qui a lieu dans la nuit du 24 décembre 1952 semble un succès et le malade reprend rapidement des forces et peut même remarcher mais, à la suite de l'anurie brutale signant le rejet, Marius Renard meurt quatre semaines plus tard le 27 janvier 1953[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marius Renard est un charpentier de 16 ans qui, à la suite d'une chute d'un échafaudage le 18 décembre 1952, a une hémorragie incontrôlable contraignant le chirurgien qui tentait en urgence de le sauver à lui retirer son rein droit rompu à l'origine de cette hémorragie. Le médecin qui pratique l’ablation avec succès (arrêt de l'hématurie), ignorait l'absence congénitale de rein gauche de l’adolescent. Le rein artificiel n’existant pas à l’époque, c’était la mort certaine à brève échéance pour ce sujet anéphrique. 
+Le professeur Jean Hamburger, père de la néphrologie, Gabriel Richet et l'équipe de Louis Michon, chirurgien urologue de l'hôpital Necker, décident de tenter une greffe sur le jeune homme, à partir d'un don d'organe effectué par sa mère qui avait supplié pour qu’on donne cette chance à son fils. Dans un premier temps, l'opération qui a lieu dans la nuit du 24 décembre 1952 semble un succès et le malade reprend rapidement des forces et peut même remarcher mais, à la suite de l'anurie brutale signant le rejet, Marius Renard meurt quatre semaines plus tard le 27 janvier 1953.
 </t>
         </is>
       </c>
